--- a/Industrial Placement Record Book.xlsx
+++ b/Industrial Placement Record Book.xlsx
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B3" s="99" t="inlineStr">
         <is>
-          <t>I worked on the xamit-app-frontend and xamit_rest_api, focusing on adding release signing configuration, adjusting API base URLs, renaming package identifiers, and implementing idempotency checks for transaction processing. I also enhanced logging and temporarily disabled test store mode UI in credits.</t>
+          <t>Temporarily disabled test store mode UI in credits.</t>
         </is>
       </c>
       <c r="C3" s="100" t="n">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B4" s="99" t="inlineStr">
         <is>
-          <t>I worked on the xamit_rest_api project, renaming it in package.json and removing 20 and 200 point payment packages from migration. This involved updating the project configuration and modifying the database migration scripts.</t>
+          <t>Renamed project in package.json and removed payment packages.</t>
         </is>
       </c>
       <c r="C4" s="100" t="n">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B5" s="99" t="inlineStr">
         <is>
-          <t>I updated the xamit-app-frontend by bumping the app version, updating the default API base URL, and setting the RevenueCat log level to error. This involved making changes to the application's configuration and versioning.</t>
+          <t>Bumped app version and updated API base URL.</t>
         </is>
       </c>
       <c r="C5" s="100" t="n">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="B7" s="99" t="inlineStr">
         <is>
-          <t>I worked on the xamit-app-frontend and viral-networks-be, focusing on handling unassigned paper grades, enhancing the credits view, and adding RevenueCat test store configuration. I implemented features to filter paper grades, display package availability warnings, and refine package selection logic.</t>
+          <t>Improved credits view and added test store configuration</t>
         </is>
       </c>
       <c r="C7" s="100" t="n">
@@ -1177,18 +1177,16 @@
       <c r="A11" s="41" t="n"/>
       <c r="B11" s="102" t="inlineStr">
         <is>
-          <t>Preventing duplicate transaction processing was a key challenge.
-The project had outdated payment packages that needed to be removed from the migration scripts.
-None explicitly stated, but potential issues with outdated app versions or incorrect API base URLs could have been present.
-Handling unassigned paper grades with `gradeId = 0` and managing null grade/medium/subject relations in paper details</t>
+          <t>Unassigned paper grades and credits view
+Paper grade filter and package selection
+Credits view and test store configuration</t>
         </is>
       </c>
       <c r="C11" s="99" t="inlineStr">
         <is>
-          <t>I added an idempotency check to prevent duplicate transactions.
-I updated the package.json file to reflect the project's new name and modified the migration scripts to exclude the 20 and 200 point payment packages.
-Updating the app version, default API base URL, and configuring the RevenueCat log level to error resolved any potential issues related to these aspects.
-I used a combination of filtering and null checks to safely manage grade relations and added features to match null grade IDs and enhance the credits view</t>
+          <t>Grade handling and credits view updates
+Filter updates and package selection refinement
+Credits view updates and test store configuration</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1275,7 @@
       </c>
       <c r="B25" s="99" t="inlineStr">
         <is>
-          <t>I worked on the xamit-app-frontend, removing unused iOS plugins, updating RevenueCat SDK dependencies, displaying a message when no payment methods are available, and removing a redundant SizedBox. These changes aimed to improve the overall user experience and maintain the application's efficiency.</t>
+          <t>Improved payment method display and removed redundancy</t>
         </is>
       </c>
       <c r="C25" s="100" t="n">
@@ -1292,7 +1290,7 @@
       </c>
       <c r="B26" s="99" t="inlineStr">
         <is>
-          <t>I worked on the xamit-app-frontend, centralizing error message handling, reimplementing the credits page, and implementing various fixes and updates, including request timeouts and RevenueCat ProGuard rules. I also refactored the OneSignal Info.plist handling and incremented the app version.</t>
+          <t>Incremented build number and updated dependencies</t>
         </is>
       </c>
       <c r="C26" s="100" t="n">
@@ -1325,7 +1323,7 @@
       </c>
       <c r="B29" s="99" t="inlineStr">
         <is>
-          <t>I worked on the xamit-app-frontend, resolving issues with the 'Ash Screen' and 'Stuck Spinner' in the Credits page, and implementing a separate Android credits page with RevenueCat. I also ensured reactive UI updates and added robust null checks for transaction lists.</t>
+          <t>Fixed Android credits page issues</t>
         </is>
       </c>
       <c r="C29" s="100" t="n">
@@ -1366,17 +1364,23 @@
     <row r="33">
       <c r="A33" s="99" t="inlineStr">
         <is>
-          <t>The presence of unused iOS plugins and the lack of a message when no payment methods are available could have led to a subpar user experience.
-One key technical challenge was handling errors and implementing robust state management for the credits page and transaction fetching.
-The 'Ash Screen' and 'Stuck Spinner' issues in the Credits page, which were causing background page crashes and non-reactive UI updates.</t>
+          <t>Unused plugins and outdated dependencies
+Payment method display and redundancy
+Error handling and credits page complexity
+API stability and ProGuard issues
+App build and OneSignal issues
+Outdated dependencies and build number</t>
         </is>
       </c>
       <c r="B33" s="90" t="n"/>
       <c r="C33" s="99" t="inlineStr">
         <is>
-          <t>I updated the dependencies, removed unnecessary plugins, and added a feature to display a message when no payment methods are available to address these issues.
-I used a combination of new utility functions for centralized error message handling, updated state management, and enhanced transaction fetching with robust error handling to solve the problem.
-Implemented ValueNotifier for 'Purchase Points' dropdown, added robust null checks, hardened RegExp matching and list lookups, and removed unused imports.</t>
+          <t>Plugin removal and SDK updates
+Message display and SizedBox removal
+Utility and state management updates
+Timeouts and robust error handling
+Refactored Info.plist and app version update
+Dependency updates and build number increment</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1469,7 @@
       </c>
       <c r="B47" s="99" t="inlineStr">
         <is>
-          <t>I worked on implementing the limited credit trial flow in the xamit-app-frontend, which included removing and restoring various UI elements, fixing the async purchase flow, and adding a message for insufficient credits. I also cleaned up unused code in the process.</t>
+          <t>Implemented limited credit trial flow</t>
         </is>
       </c>
       <c r="C47" s="100" t="n">
@@ -1480,7 +1484,7 @@
       </c>
       <c r="B48" s="99" t="inlineStr">
         <is>
-          <t>I worked on the xamit-app-frontend and bumped the version. This involved updating the version number in the application.</t>
+          <t>Bumped version</t>
         </is>
       </c>
       <c r="C48" s="100" t="n">
@@ -1546,17 +1550,9 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="99" t="inlineStr">
-        <is>
-          <t>The async purchase flow was not consuming credits before quiz start, which could lead to incorrect credit balances.</t>
-        </is>
-      </c>
+      <c r="A55" s="41" t="n"/>
       <c r="B55" s="90" t="n"/>
-      <c r="C55" s="99" t="inlineStr">
-        <is>
-          <t>I fixed the async purchase flow to consume credits before quiz start, ensuring accurate credit balances.</t>
-        </is>
-      </c>
+      <c r="C55" s="41" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="91" t="n"/>
@@ -7104,15 +7100,7 @@
       </c>
       <c r="B26" s="99" t="inlineStr">
         <is>
-          <t>Contributed to viral-networks-be. Updates include: Configure backend for safe local development environment
-- Add local environment configuration with isolated database settings
-- Modify Firebase authentication service to handle missing credentials gracefully
-- Update database connection to use localhost instead of production settings
-- Add error handling for Firebase initialization in development mode
-- Create local development database name to prevent production conflicts
-- Configure Docker services for local PostgreSQL, Adminer, and Maildev
-- Set up database migrations and seed data for local environment
-- Ensure all external services point to localhost for development safety.</t>
+          <t>Configured backend for safe local development environment</t>
         </is>
       </c>
       <c r="C26" s="100" t="n">
@@ -7127,13 +7115,7 @@
       </c>
       <c r="B27" s="99" t="inlineStr">
         <is>
-          <t>Contributed to quiz-app. Updates include: Refactor authentication verification screen with improved OTP handling
-- Add country code display in verification message
-- Update OTP input fields with automatic focus
-- Add resend OTP functionality with proper event handling
-- Fix constructor to properly accept and use country code parameter
-- Improve UI layout with responsive OTP input boxes
-- Connect verify button to BLoC pattern instead of direct navigation".</t>
+          <t>Improved authentication verification screen with OTP handling</t>
         </is>
       </c>
       <c r="C27" s="100" t="n">
@@ -7148,24 +7130,7 @@
       </c>
       <c r="B28" s="99" t="inlineStr">
         <is>
-          <t>Contributed to quiz-app, viral-networks-fe, viral-networks-be. Updates include: Refactor authentication architecture to implement feature-based CRUD separation.
-- Separate OTP verification logic from authentication feature into dedicated authentication-verify feature
-- Remove verifyOtp operations from authentication feature (repository, datasource, usecase, bloc)
-- Create complete authentication-verify feature with clean architecture layers:
-  * Domain: entities, repositories, usecases (verify OTP, resend OTP)
-  * Data: models, datasources, repository implementations with proper error handling
-  * Presentation: dedicated VerifyBloc with comprehensive state management
-- Update authentication-verify page to use new VerifyBloc instead of AuthBloc
-- Update service locator (dependency injection) to register new authentication-verify dependencies
-- Remove verify_otp_usecase.dart from authentication feature
-- Update AuthBloc constructor to remove verifyOtpUseCase parameter
-- Implement proper separation of concerns following feature-based CRUD approach
-- Each feature now handles its own specific operations:
-  * Authentication feature: Send OTP operations only
-  * Authentication-verify feature: Verify OTP and resend OTP operations only
-- Add comprehensive error handling with NetworkFailure and ServerFailure types
-- Maintain clean architecture principles across both features
-- Update imports and dependencies to reflect new architecture.</t>
+          <t>Refactored authentication architecture for feature-based CRUD separation</t>
         </is>
       </c>
       <c r="C28" s="100" t="n">
@@ -7213,9 +7178,21 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="41" t="n"/>
+      <c r="A33" s="99" t="inlineStr">
+        <is>
+          <t>Missing credentials and database conflicts in development mode
+Inefficient OTP input fields and resend functionality
+Tight coupling between authentication features</t>
+        </is>
+      </c>
       <c r="B33" s="90" t="n"/>
-      <c r="C33" s="41" t="n"/>
+      <c r="C33" s="99" t="inlineStr">
+        <is>
+          <t>Added local environment configuration, error handling, and isolated database settings
+Added country code display, automatic focus, and proper event handling
+Implemented clean architecture layers and separate OTP verification logic</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="91" t="n"/>
@@ -7302,11 +7279,7 @@
       </c>
       <c r="B47" s="99" t="inlineStr">
         <is>
-          <t>Contributed to quiz-app. Updates include: Add token storage on OTP verification success
-- Save verification token to SharedPreferences on successful OTP verification
-- Add debug logging for token save operation
-- Ensure SplashScreen can detect logged-in users on app restart
-- Complete authentication flow with proper token persistence.</t>
+          <t>Implemented OTP verification and authentication flow.</t>
         </is>
       </c>
       <c r="C47" s="100" t="n">
@@ -7321,7 +7294,7 @@
       </c>
       <c r="B48" s="99" t="inlineStr">
         <is>
-          <t>Contributed to articom-base-mobile. Updates include: initial commit.</t>
+          <t>Initial project setup and first commit.</t>
         </is>
       </c>
       <c r="C48" s="100" t="n">
@@ -7336,7 +7309,7 @@
       </c>
       <c r="B49" s="99" t="inlineStr">
         <is>
-          <t>Contributed to articom-base-mobile. Updates include: Refactor CardItem and CarouselItem models to replace 'portionText' with 'subText' for consistency; update related components and UI references accordingly..</t>
+          <t>Refactored models and UI components for consistency and improved layout.</t>
         </is>
       </c>
       <c r="C49" s="100" t="n">
@@ -7351,7 +7324,7 @@
       </c>
       <c r="B50" s="99" t="inlineStr">
         <is>
-          <t>Contributed to articom-base-mobile. Updates include: Refactor ChatBubble: remove box shadows for a cleaner UI and improve layout consistency.</t>
+          <t>Refactored and implemented ChatBubble widget with attachment support</t>
         </is>
       </c>
       <c r="C50" s="100" t="n">
@@ -7366,7 +7339,7 @@
       </c>
       <c r="B51" s="99" t="inlineStr">
         <is>
-          <t>Contributed to articom-base-mobile. Updates include: add single attachment display and improve badge layout for multiple attachments.</t>
+          <t>Implemented multiple features including attachment display and options selection</t>
         </is>
       </c>
       <c r="C51" s="100" t="n">
@@ -7405,9 +7378,21 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="41" t="n"/>
+      <c r="A55" s="99" t="inlineStr">
+        <is>
+          <t>Lack of authentication and token persistence
+Project setup and initial commit
+Inconsistent naming conventions and layout issues</t>
+        </is>
+      </c>
       <c r="B55" s="90" t="n"/>
-      <c r="C55" s="41" t="n"/>
+      <c r="C55" s="99" t="inlineStr">
+        <is>
+          <t>Added token storage and authentication flow
+Initial project setup and first commit
+Refactored models and UI components</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="91" t="n"/>
@@ -7494,7 +7479,7 @@
       </c>
       <c r="B69" s="99" t="inlineStr">
         <is>
-          <t>Contributed to articom-base-mobile. Updates include: Enhance Carousel with haptic feedback and drag-to-close functionality..</t>
+          <t>Enhanced Carousel with haptic feedback and drag-to-close functionality</t>
         </is>
       </c>
       <c r="C69" s="100" t="n">
@@ -7509,7 +7494,7 @@
       </c>
       <c r="B70" s="99" t="inlineStr">
         <is>
-          <t>I refactored the OptionsComponent to use an API-shaped data model and added a MapPreviewCard widget, enhancing the functionality of the articom-base-mobile application.</t>
+          <t>Refactored OptionsComponent and added MapPreviewCard widget</t>
         </is>
       </c>
       <c r="C70" s="100" t="n">
@@ -7524,7 +7509,7 @@
       </c>
       <c r="B71" s="99" t="inlineStr">
         <is>
-          <t>I worked on the articom-base-mobile project, implementing various features and enhancements, including updating video URLs, adjusting text styles, and adding a universal video card with fullscreen player support. I also enhanced the MapPreviewCard with a glass morph effect and updated button styling in the OptionsComponent.</t>
+          <t>Enhanced video and map features with new widgets and styling</t>
         </is>
       </c>
       <c r="C71" s="100" t="n">
@@ -7539,7 +7524,7 @@
       </c>
       <c r="B72" s="99" t="inlineStr">
         <is>
-          <t>I worked on the articom-base-mobile project, where I added the proper attachment feature to the chat input bar, refactored the chat page structure, and implemented an app background gradient with enhanced theme structure. I also introduced various pages with structured layouts and integrated components, and improved navigation and user experience.</t>
+          <t>Improved app UI with gradient background and refactored widgets</t>
         </is>
       </c>
       <c r="C72" s="100" t="n">
@@ -7554,7 +7539,7 @@
       </c>
       <c r="B73" s="99" t="inlineStr">
         <is>
-          <t>I worked on the articom-base-mobile project, where I added a new ChatInputBar with history, voice input, and document scanning, refactored video handling, and enhanced the UI with glassmorphism and Google Maps integration. I also simplified the ChatBubble widget and added dark mode styles for Google Maps.</t>
+          <t>Added ChatInputBar, refactored video handling and enhanced UI with glassmorphism</t>
         </is>
       </c>
       <c r="C73" s="100" t="n">
@@ -7595,19 +7580,19 @@
     <row r="77">
       <c r="A77" s="99" t="inlineStr">
         <is>
-          <t>The existing OptionsComponent did not utilize an API-shaped data model, potentially leading to data inconsistencies and limitations in scalability.
-One key technical challenge was ensuring consistent styling across different components, such as CardComponent, CarouselSection, and MapPreviewCard, while also introducing dynamic height and customizable dark themes.
-One key technical challenge was ensuring consistent radial gradient background across the app while maintaining performance.
-One key technical challenge was integrating Google Maps with the existing UI while maintaining a consistent design, particularly with the addition of dark mode styles.</t>
+          <t>Inefficient OptionsComponent
+Limited video and map functionality
+Inconsistent app design
+Chat functionality and UI issues</t>
         </is>
       </c>
       <c r="B77" s="90" t="n"/>
       <c r="C77" s="99" t="inlineStr">
         <is>
-          <t>I redesigned the component to align with the API data model and incorporated the MapPreviewCard widget to improve user experience and data visualization.
-I introduced a centralized AppTheme class to standardize styling across components and updated each component to use this theme, ensuring consistency and making it easier to maintain and customize the UI in the future.
-I introduced the AppBackground widget with const constructors for improved performance and updated the AppTheme to include new background gradient colors for light and dark modes.
-I used the google_maps_flutter dependency and updated the pubspec.yaml file to include the necessary map styles, such as the dark mode style in assets/map_styles/map_style_dark.json.</t>
+          <t>Implemented API-shaped data model and MapPreviewCard widget
+Introduced UniversalVideoCard and MapPreviewCard widgets
+Implemented AppBackground widget and AppTheme class
+Component development and UI enhancement</t>
         </is>
       </c>
     </row>
@@ -7696,7 +7681,7 @@
       </c>
       <c r="B91" s="99" t="inlineStr">
         <is>
-          <t>I implemented the StatsSection component with an updated layout and data, and added a LogoCarousel component with a responsive logo slider. I also added new SVG icons and configured the slider settings for autoplay and responsiveness.</t>
+          <t>Implemented StatsSection, added SVG icons and LogoCarousel component</t>
         </is>
       </c>
       <c r="C91" s="100" t="n">
@@ -7711,7 +7696,7 @@
       </c>
       <c r="B92" s="99" t="inlineStr">
         <is>
-          <t>I worked on the yeheli-web-fe project, implementing code changes to enhance functionality and improve performance, and refactoring SVG icons and text content to improve readability and styling consistency. I also added new components, including ChatBubble and HeroSection, with responsive design and integrated background images and gradient overlays.</t>
+          <t>Enhanced functionality and performance, updated SVG icons and text content</t>
         </is>
       </c>
       <c r="C92" s="100" t="n">
@@ -7726,7 +7711,7 @@
       </c>
       <c r="B93" s="99" t="inlineStr">
         <is>
-          <t>I worked on implementing internationalization across various components of the yeheli-web-fe project, including updating middleware, routing, and locale management, as well as refactoring components for improved localization and adding translations for multiple languages. I also refactored several UI components to enhance mobile responsiveness and layout.</t>
+          <t>Implemented internationalization support with next-intl</t>
         </is>
       </c>
       <c r="C93" s="100" t="n">
@@ -7741,7 +7726,7 @@
       </c>
       <c r="B94" s="99" t="inlineStr">
         <is>
-          <t>I worked on the yeheli-web-fe project, focusing on streamlining imports, enhancing navigation label handling, and improving fallback logic for translations, as well as refactoring internationalization handling and implementing React Suspense for lazy loading of LocaleSwitcher.</t>
+          <t>Refactored internationalization handling and improved navigation</t>
         </is>
       </c>
       <c r="C94" s="100" t="n">
@@ -7791,19 +7776,19 @@
     <row r="99">
       <c r="A99" s="99" t="inlineStr">
         <is>
-          <t>Implementing a responsive logo slider that works across different screen sizes
-One key technical challenge was ensuring responsive behavior and styling consistency across different screen sizes and components.
-One key technical challenge was ensuring consistent structure across locale files and streamlining message imports for improved code readability.
-Translation inconsistencies in Sinhala localization, specifically the incorrect spelling of 'යෙහෙලි' in header and hero sections.</t>
+          <t>Missing UI elements
+Performance and UI issues
+Limited language support and inconsistent message loading
+Inconsistent translation key usage and navigation logic</t>
         </is>
       </c>
       <c r="B99" s="90" t="n"/>
       <c r="C99" s="99" t="inlineStr">
         <is>
-          <t>Using react-slick to create a responsive logo slider
-I used a combination of CSS media queries, flexible layouts, and careful component design to achieve responsive behavior and consistency.
-I used next-intl to implement internationalization support and refactored message loading logic to improve code clarity and structure.
-Fixed the translation inconsistencies by correcting the spelling of 'යෙහෙලි' in the affected sections.</t>
+          <t>Component development and integration
+Code refactoring and optimization
+Added language support and improved message loading logic
+Unified translation key usage and improved navigation logic</t>
         </is>
       </c>
     </row>
@@ -7962,7 +7947,7 @@
       </c>
       <c r="B3" s="99" t="inlineStr">
         <is>
-          <t>I worked on the yeheli-web-fe project, focusing on adding logging, integrating Strapi API, and refactoring components for improved data handling and dynamic data support. I also implemented new components, enhanced existing ones, and updated functions for better null safety and TypeScript support.</t>
+          <t>Implemented Strapi integration and refactored layout components</t>
         </is>
       </c>
       <c r="C3" s="100" t="n">
@@ -7977,7 +7962,7 @@
       </c>
       <c r="B4" s="99" t="inlineStr">
         <is>
-          <t>I worked on the yeheli-web-fe and viral-networks-fe projects, focusing on improving code formatting, error handling, and phone number handling, as well as integrating the FaqSectionStrapi component and updating FAQ data fetching logic.</t>
+          <t>Enhanced phone number handling with specific error messages.</t>
         </is>
       </c>
       <c r="C4" s="100" t="n">
@@ -7992,7 +7977,7 @@
       </c>
       <c r="B5" s="99" t="inlineStr">
         <is>
-          <t>I refactored the error handling logic in MobileNumberRepoImpl and added email existence error handling and messages for the sign-up process, also updated dependencies and configurations for compatibility with Java 21 and Gradle 8.3.</t>
+          <t>Refactored error handling in MobileNumberRepoImpl.</t>
         </is>
       </c>
       <c r="C5" s="100" t="n">
@@ -8007,7 +7992,7 @@
       </c>
       <c r="B6" s="99" t="inlineStr">
         <is>
-          <t>I worked on enhancing the viral-networks-fe and articom-base-mobile projects by adding new components, improving layouts, and refactoring code for better readability and compatibility. I also updated dependencies and resolved issues related to email existence checks and error handling.</t>
+          <t>Improved code readability and layout in components.</t>
         </is>
       </c>
       <c r="C6" s="100" t="n">
@@ -8058,18 +8043,18 @@
       <c r="A11" s="41" t="n"/>
       <c r="B11" s="102" t="inlineStr">
         <is>
-          <t>One key technical challenge was ensuring null safety and proper data handling when integrating Strapi API with various components.
-One key technical challenge was handling specific error messages for existing phone numbers.
-The existing code had poor error handling and did not provide specific error messages for 'phoneAlreadyExists' scenarios.
-One key technical challenge was simplifying error handling logic for email existence in MobileNumberRepoImpl and improving dialog management in the SignUp page.</t>
+          <t>Inconsistent data handling across components
+Generic error messages for phone number submission.
+Complex error handling logic.
+Poor code formatting and inconsistent layouts.</t>
         </is>
       </c>
       <c r="C11" s="99" t="inlineStr">
         <is>
-          <t>I refactored components to support dynamic data from Strapi, updated functions for null safety, and enhanced type definitions for better TypeScript support.
-I used a combination of refactoring and feature additions to improve error handling and provide more specific error messages for existing phone numbers.
-I enhanced the postMobileNumber method to return specific errors and updated error handling in the SignUp page to display appropriate messages based on mobile number existence.
-I refactored the email existence check logic, simplified error handling, and improved dialog management in the SignUp page by updating the MobileNumberRepoImpl and mock response formatting.</t>
+          <t>Unified Strapi integration and improved data handling
+Provided specific error messages for existing numbers.
+Simplified error handling and improved readability.
+Enhanced MiniCard and SuggestionPills components.</t>
         </is>
       </c>
     </row>
@@ -8158,7 +8143,7 @@
       </c>
       <c r="B25" s="99" t="inlineStr">
         <is>
-          <t>I worked on the yeheli-web-be project, adding findAll endpoints for categories, threads, and messages to enhance the application's functionality. This involved writing new code to support these endpoints.</t>
+          <t>Added findAll endpoints for categories, threads, and messages</t>
         </is>
       </c>
       <c r="C25" s="100" t="n">
@@ -8173,7 +8158,7 @@
       </c>
       <c r="B26" s="99" t="inlineStr">
         <is>
-          <t>I worked on refactoring expert question handling to thread management, implementing new API routes, and enhancing error handling and logging for the yeheli-web-be, yeheli-web-fe, and yeheli-web-admin projects. I also implemented UI components, integrated NextAuth for Azure AD authentication, and set up a Zustand store for global state management.</t>
+          <t>Refactored expert question handling and added admin dashboard functionality</t>
         </is>
       </c>
       <c r="C26" s="100" t="n">
@@ -8188,7 +8173,7 @@
       </c>
       <c r="B27" s="99" t="inlineStr">
         <is>
-          <t>I worked on implementing various features and refactoring code for yeheli-web-be and yeheli-web-admin, including idToken re-exchange fallback, user management functionality, and authentication handling improvements. I also implemented phone OTP authentication and improved code formatting and readability in various service and controller files.</t>
+          <t>Implemented idToken re-exchange fallback and user management functionality</t>
         </is>
       </c>
       <c r="C27" s="100" t="n">
@@ -8203,7 +8188,7 @@
       </c>
       <c r="B28" s="99" t="inlineStr">
         <is>
-          <t>I worked on implementing new API endpoints, refactoring answer retrieval logic, and enhancing the admin dashboard with answer review functionality and role-based access control. I also added message filtering capabilities and improved thread retrieval.</t>
+          <t>Added message filtering capabilities and answer counts by status</t>
         </is>
       </c>
       <c r="C28" s="100" t="n">
@@ -8218,7 +8203,7 @@
       </c>
       <c r="B29" s="99" t="inlineStr">
         <is>
-          <t>I implemented the phone OTP request and verification flow in the AskPage component and updated the OTP generation and verification to use a 4-digit format.</t>
+          <t>Updated OTP generation and verification to use 4-digit format</t>
         </is>
       </c>
       <c r="C29" s="100" t="n">
@@ -8259,21 +8244,31 @@
     <row r="33">
       <c r="A33" s="99" t="inlineStr">
         <is>
-          <t>One key technical challenge was ensuring the correct implementation of the findAll endpoints to handle various data retrieval scenarios.
-One key technical challenge was adjusting the user role checks to use role IDs instead of names for consistency, which required updates to the data model and API responses.
-One key technical challenge was ensuring proper role checks and token usage in expert routes, which required refactoring authentication handling and API routes.
-One key technical challenge was implementing role-based access control and normalizing message types in API responses, which required careful consideration of user roles and permissions.
-The existing OTP system did not have a standardized format, which could lead to inconsistencies and potential security issues.</t>
+          <t>Data retrieval
+Expert question handling and admin dashboard
+Authentication and user management
+Missing answer counts API endpoint and inefficient answer retrieval logic
+Inefficient answer review functionality and status tracking
+Inefficient message and thread filtering capabilities
+Inefficient role-based access control and message types in API responses
+Missing message filtering capabilities and answer counts by status
+Missing phone OTP request and verification flow
+Inefficient OTP generation and verification</t>
         </is>
       </c>
       <c r="B33" s="90" t="n"/>
       <c r="C33" s="99" t="inlineStr">
         <is>
-          <t>I used standard RESTful API practices and database querying techniques to implement the findAll endpoints, ensuring they can efficiently retrieve data from the database.
-I updated the TypeScript types to reflect changes in the data model, including threads and messages, and implemented new API routes for admin category management, thread assignment, and statistics retrieval.
-I unified authentication checks using `getAuthenticatedUser` across admin and expert API routes, updated admin routes to use new authentication utility, and enhanced expert routes to ensure proper role checks and token usage.
-I used a combination of API design and programming techniques to implement the required functionality, including using status tracking and loading states to enhance the user experience.
-I updated the OTP generation and verification to use a 4-digit format, providing a more secure and standardized approach.</t>
+          <t>Added findAll endpoints for categories, threads, and messages
+Refactored expert question handling and added admin dashboard functionality
+Implemented idToken re-exchange fallback and user management functionality
+Implemented answer counts API endpoint and refactored answer retrieval logic
+Enhanced admin dashboard with answer review functionality and status tracking
+Enhanced message and thread filtering capabilities and added expert thread retrieval
+Enhanced role-based access control and normalized message types in API responses
+Added message filtering capabilities and answer counts by status
+Implemented phone OTP request and verification flow
+Updated OTP generation and verification to use 4-digit format</t>
         </is>
       </c>
     </row>
@@ -8362,7 +8357,7 @@
       </c>
       <c r="B47" s="99" t="inlineStr">
         <is>
-          <t>I worked on enhancing the admin dashboard with initial loading state management, data fetching improvements, pagination, and improved data loading for questions and answers, and also removed deprecated phone OTP request and verification routes. Additionally, I completed the full Strapi implementation.</t>
+          <t>Implemented full Strapi integration</t>
         </is>
       </c>
       <c r="C47" s="100" t="n">
@@ -8377,7 +8372,7 @@
       </c>
       <c r="B48" s="99" t="inlineStr">
         <is>
-          <t>I refactored the yeheli-web-be and yeheli-web-admin projects by removing expert approval, pending, and registration APIs and implemented expert invitation and password setup functionality. I also introduced a new API for inviting experts and added a password setup API for new experts.</t>
+          <t>Refactored expert approval and registration APIs, and implemented password setup functionality.</t>
         </is>
       </c>
       <c r="C48" s="100" t="n">
@@ -8392,7 +8387,7 @@
       </c>
       <c r="B49" s="99" t="inlineStr">
         <is>
-          <t>I updated API parameter handling to use Promise for ID extraction in multiple routes and implemented expert invitation functionality with email notifications. I also worked on the super admin UI and merged related pull requests.</t>
+          <t>Implemented expert invitation functionality with email notifications.</t>
         </is>
       </c>
       <c r="C49" s="100" t="n">
@@ -8407,7 +8402,7 @@
       </c>
       <c r="B50" s="99" t="inlineStr">
         <is>
-          <t>I worked on various features and bug fixes for yeheli-web-be, yeheli-web-admin, and yeheli-web-strapi, including removing the expert management section, enhancing debug logging, and implementing expert removal functionality. I also refactored code, updated login credentials, and improved error handling.</t>
+          <t>Implemented various Admin and Expert dashboard enhancements and bug fixes.</t>
         </is>
       </c>
       <c r="C50" s="100" t="n">
@@ -8457,19 +8452,25 @@
     <row r="55">
       <c r="A55" s="99" t="inlineStr">
         <is>
-          <t>One key technical challenge was managing the initial loading state and improving data fetching for the admin dashboard.
-One key technical challenge was ensuring secure password setup for new experts via a secure hash.
-Handling API parameters and implementing expert invitation functionality with email notifications posed a technical challenge.
-One key technical challenge was the need to revert a previous commit that updated API parameter handling, which caused issues with ID extraction in multiple routes.</t>
+          <t>Inefficient data fetching and loading states
+Deprecated phone OTP request and verification routes
+Inefficient data loading for questions and answers
+Missing Strapi integration
+Complex expert approval and registration process
+Lack of expert invitation system
+Expert management and login issues</t>
         </is>
       </c>
       <c r="B55" s="90" t="n"/>
       <c r="C55" s="99" t="inlineStr">
         <is>
-          <t>I implemented pagination and improved data loading for questions and answers to address the challenge.
-I created a new Setup Password page with validation for password strength and confirmation, and enhanced error handling and logging across the authentication and API layers.
-Using Promises for ID extraction and implementing invitation functionality with email notifications resolved the challenge.
-I reverted the commit and refactored the code to streamline Azure AD configuration and improve error handling.</t>
+          <t>Implemented loading state management and data fetching improvements
+Removed and cleaned up related code
+Implemented pagination and improved data loading
+Implemented full Strapi integration
+Simplified expert registration and added password setup API.
+Added API for inviting experts and sending email notifications.
+Improved debug logging, added refresh buttons, and enhanced expert authentication.</t>
         </is>
       </c>
     </row>
@@ -8558,7 +8559,7 @@
       </c>
       <c r="B69" s="99" t="inlineStr">
         <is>
-          <t>I updated the pending experts API to handle a new response format and filter by status, and implemented various code changes to enhance functionality and improve performance across multiple projects.</t>
+          <t>Updated pending experts API, improved loading state display, and refactored stats fetching and display logic.</t>
         </is>
       </c>
       <c r="C69" s="100" t="n">
@@ -8573,7 +8574,7 @@
       </c>
       <c r="B70" s="99" t="inlineStr">
         <is>
-          <t>I worked on implementing the change password functionality, enhancing UI with friendly fields for various sections, and updating schema with detailed descriptions for better editor experience across yeheli-web-be, yeheli-web-fe, yeheli-web-admin, and yeheli-web-strapi. I also fixed deprecation issues in the current frontend and added migration scripts for blog friendly fields.</t>
+          <t>Implemented change password functionality for experts, enhanced UI with friendly fields, and updated schema with friendly fields and descriptions.</t>
         </is>
       </c>
       <c r="C70" s="100" t="n">
@@ -8588,7 +8589,7 @@
       </c>
       <c r="B71" s="99" t="inlineStr">
         <is>
-          <t>I worked on various projects, including yeheli-web-be, employee-tracking-app-mobile, yeheli-web-strapi, yeheli-web-admin, and yeheli-web-fe, where I implemented new features, fixed bugs, and refactored code to improve functionality and performance. I also upgraded dependencies, updated configurations, and added new functionalities such as category management and profile management.</t>
+          <t>Updated Android build configuration, upgraded Java and Gradle versions, and implemented category management and profile management functionalities.</t>
         </is>
       </c>
       <c r="C71" s="100" t="n">
@@ -8603,7 +8604,7 @@
       </c>
       <c r="B72" s="99" t="inlineStr">
         <is>
-          <t>I worked on implementing new features, fixing bugs, and refactoring code for yeheli-web-be, yeheli-web-fe, and yeheli-web-admin, including the implementation of a PasswordInput component, enhancement of invite expert form validation, and replacement of native select with a custom Select component. I also performed various refactorings to improve code quality and responsiveness.</t>
+          <t>Implemented PasswordInput component and enhanced invite expert form validation</t>
         </is>
       </c>
       <c r="C72" s="100" t="n">
@@ -8618,7 +8619,7 @@
       </c>
       <c r="B73" s="99" t="inlineStr">
         <is>
-          <t>I worked on enhancing the stats response, adding categories integration endpoint, and implementing FAQ category synchronization with backend integration, while also improving UI with Framer Motion animations and fixing bugs in various components.</t>
+          <t>Improved error handling and accessibility in HiworksSections and LoginModal</t>
         </is>
       </c>
       <c r="C73" s="100" t="n">
@@ -8659,21 +8660,17 @@
     <row r="77">
       <c r="A77" s="99" t="inlineStr">
         <is>
-          <t>The pending experts API required updates to handle a new response format and filter by status, and the codebase had redundant or unused components that needed refactoring.
-One key technical challenge was integrating the change password functionality with validation and API integration while ensuring a seamless user experience.
-One key technical challenge was enforcing the categoryId as a required parameter in the askQuestion method, which required refactoring the category normalization logic and improving type annotations.
-One key technical challenge was the need to replace native select with a custom Select component for improved styling and functionality, which required adjustments to the codebase.
-One key technical challenge was correcting motion component wrapping in the Footer for proper animation.</t>
+          <t>Enhance password visibility control and invite expert form validation
+Include expert specialization counts and categories integration
+Enforce maximum question length and improve error handling</t>
         </is>
       </c>
       <c r="B77" s="90" t="n"/>
       <c r="C77" s="99" t="inlineStr">
         <is>
-          <t>I refactored the code to streamline stats fetching and update display logic, removed unused components, and added versioning to the HomeController.
-I used a combination of frontend and backend development to implement the change password functionality, leveraging validation and API integration to ensure a secure and user-friendly experience.
-I refactored the category normalization logic, improved type annotations, and added a check to enforce the categoryId as a required parameter in the askQuestion method.
-I replaced the native select with a custom Select component, which improved the styling and functionality of the application.
-The solution used was to refactor the motion easing functions for improved animation consistency and update the motion component wrapping in the Footer.</t>
+          <t>Implemented PasswordInput component and enhanced invite expert form validation
+Enhanced stats response and added categories integration endpoint
+Enhanced error handling and accessibility</t>
         </is>
       </c>
     </row>
@@ -8832,7 +8829,7 @@
       </c>
       <c r="B3" s="99" t="inlineStr">
         <is>
-          <t>I worked on refactoring the Expert Dashboard, updating dependencies, and improving package.json formatting in yeheli-web-fe, yeheli-web-admin, and yeheli-web-strapi. I also fixed several bugs, including removing duplicate dependencies and updating Node.js versions.</t>
+          <t>Refactored layout component and removed unused font imports</t>
         </is>
       </c>
       <c r="C3" s="100" t="n">
@@ -8847,7 +8844,7 @@
       </c>
       <c r="B4" s="99" t="inlineStr">
         <is>
-          <t>I worked on the yeheli-web-fe and yeheli-web-strapi projects, implementing code changes to enhance functionality and improve performance, and resolved several issues including downgrading error logging and adding missing Azure Static Web Apps API token. I also added new SVG graphics for meditation, mental health, and visitor statistics.</t>
+          <t>Downgraded error logging to reduce noise.</t>
         </is>
       </c>
       <c r="C4" s="100" t="n">
@@ -8871,7 +8868,7 @@
       </c>
       <c r="B6" s="99" t="inlineStr">
         <is>
-          <t>I worked on implementing various features and improvements for yeheli-web-be and articom-base-mobile, including theme management, user profile display, conversation history, and side menu functionality. I also refactored code for improved readability and updated dependencies.</t>
+          <t>Implemented theme management and added user preferences.</t>
         </is>
       </c>
       <c r="C6" s="100" t="n">
@@ -8886,7 +8883,7 @@
       </c>
       <c r="B7" s="99" t="inlineStr">
         <is>
-          <t>I updated the Android SDK to 36 for the Play Store and fixed merge conflicts by updating dependencies, including auth0_flutter, Android Gradle, and Kotlin versions. I also added network security configurations and implemented various receiver services.</t>
+          <t>Updated Android SDK to 36 and fixed merge conflicts.</t>
         </is>
       </c>
       <c r="C7" s="100" t="n">
@@ -8928,18 +8925,24 @@
       <c r="A11" s="41" t="n"/>
       <c r="B11" s="102" t="inlineStr">
         <is>
-          <t>Duplicate @types/node entry and outdated Node.js versions caused build errors and warnings
-Missing Azure Static Web Apps API token and unnecessary slot-name in Azure deployment configuration
-One key technical challenge was implementing a draggable sheet with dynamic action sections for enhanced user interaction.
-Merge conflicts and outdated dependencies</t>
+          <t>Enhance layout and thread management
+Upgrade Node.js version to 20
+Custom fetch options and caching behavior
+Improve structure and remove unused font imports
+Excessive error logging
+Lack of user customization
+Incompatible Android SDK version</t>
         </is>
       </c>
       <c r="C11" s="99" t="inlineStr">
         <is>
-          <t>Removed duplicate dependencies, updated Node.js versions, and improved package.json formatting
-Added the missing Azure Static Web Apps API token and removed the unnecessary slot-name from the Azure deployment configuration
-I used the DraggableScrollableSheet widget to replace the Explore bottom sheet implementation, which improved the user experience.
-Updating dependencies, including auth0_flutter, Android Gradle, and Kotlin versions, and adding network security configurations</t>
+          <t>Implemented responsive tabs and dropdown for mobile
+Updated package.json and CI workflow
+Implemented custom fetch options and improved ISR caching
+Refactored layout component
+Downgraded error logging
+Implemented theme management
+Updated Android SDK to 36</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9040,7 @@
       </c>
       <c r="B26" s="99" t="inlineStr">
         <is>
-          <t>I updated the minimum SDK version to 24 and bumped the version to 1.1.3+32 for the employee-tracking-app-mobile. This change ensures the app remains compatible with the latest Android versions.</t>
+          <t>Updated minimum SDK version and bumped app version</t>
         </is>
       </c>
       <c r="C26" s="100" t="n">
@@ -9052,7 +9055,7 @@
       </c>
       <c r="B27" s="99" t="inlineStr">
         <is>
-          <t>I refactored the Gradle build scripts and updated dependencies for the xamit-app-frontend, improving the code structure and readability. I also ensured consistent JVM target alignment and removed unused files and plugins.</t>
+          <t>Refactored Gradle build scripts and updated dependencies</t>
         </is>
       </c>
       <c r="C27" s="100" t="n">
@@ -9067,7 +9070,7 @@
       </c>
       <c r="B28" s="99" t="inlineStr">
         <is>
-          <t>I updated the Android build configuration, permissions, and security settings for improved performance and compatibility, and also updated the Android SDK versioning in build.gradle and refreshed pubspec.lock dependencies.</t>
+          <t>Updated Android build configuration and security settings</t>
         </is>
       </c>
       <c r="C28" s="100" t="n">
@@ -9082,7 +9085,7 @@
       </c>
       <c r="B29" s="99" t="inlineStr">
         <is>
-          <t>I implemented live audio streaming with real-time analysis and visualization in the articom-base-mobile project and refactored the voice assistant integration to enhance theme support and completed its integration into the Flutter app.</t>
+          <t>Implemented live audio streaming with real-time analysis and visualization</t>
         </is>
       </c>
       <c r="C29" s="100" t="n">
@@ -9123,19 +9126,19 @@
     <row r="33">
       <c r="A33" s="99" t="inlineStr">
         <is>
-          <t>The app's minimum SDK version was outdated, potentially causing compatibility issues with newer Android devices.
-Inconsistent JVM target alignment and outdated dependencies
-Incompatibility issues with the current Android build configuration and outdated SDK versioning
-One key technical challenge was ensuring proper resource management with initialization and disposal of audio components.</t>
+          <t>Outdated minimum SDK version
+Inconsistent JVM target and outdated dependencies
+Incompatible Android build configuration
+No live audio streaming</t>
         </is>
       </c>
       <c r="B33" s="90" t="n"/>
       <c r="C33" s="99" t="inlineStr">
         <is>
-          <t>Bumping the minimum SDK version to 24 resolved the compatibility issue and ensured the app can run smoothly on newer devices.
-Updated Gradle and Kotlin plugin versions, aligned JVM targets, and removed unused dependencies and plugins
-Updating the Android build configuration, permissions, and security settings, and refreshing the pubspec.lock dependencies after updating the Android SDK versioning
-I addressed this by implementing the AudioIO class for handling microphone input and speaker output, including PCM conversion, and ensuring proper initialization and disposal of audio components.</t>
+          <t>Improved app compatibility
+Streamlined build scripts and updated dependencies
+Improved performance and compatibility
+Implemented live audio streaming with real-time analysis and visualization</t>
         </is>
       </c>
     </row>
@@ -9224,7 +9227,7 @@
       </c>
       <c r="B47" s="99" t="inlineStr">
         <is>
-          <t>I worked on the xamit-app-frontend, adding ProGuard rules for Stripe, React Native SDK, and Flutter, and disabling resource shrinking and minification in the release build. This involved modifying the build configuration to ensure compatibility with the specified libraries.</t>
+          <t>Added ProGuard rules for Stripe and React Native SDK</t>
         </is>
       </c>
       <c r="C47" s="100" t="n">
@@ -9239,7 +9242,7 @@
       </c>
       <c r="B48" s="99" t="inlineStr">
         <is>
-          <t>I worked on enhancing token management and error handling in the payment process of the xamit-app-frontend, and added NDK configuration and legacy packaging options. I implemented these changes to improve the overall functionality and security of the application.</t>
+          <t>Enhanced token management and error handling in payment process</t>
         </is>
       </c>
       <c r="C48" s="100" t="n">
@@ -9307,15 +9310,15 @@
     <row r="55">
       <c r="A55" s="99" t="inlineStr">
         <is>
-          <t>Potential compatibility issues with Stripe, React Native SDK, and Flutter due to resource shrinking and minification in the release build
-One key technical challenge was ensuring seamless token management and error handling in the payment process to prevent potential security vulnerabilities.</t>
+          <t>Missing ProGuard rules
+Payment process errors</t>
         </is>
       </c>
       <c r="B55" s="90" t="n"/>
       <c r="C55" s="99" t="inlineStr">
         <is>
-          <t>Adding ProGuard rules and disabling resource shrinking and minification
-I used a combination of secure coding practices and error handling mechanisms to address the challenge and ensure the payment process is both secure and reliable.</t>
+          <t>Added ProGuard rules for Stripe and React Native SDK
+Improved token management and error handling</t>
         </is>
       </c>
     </row>
@@ -9404,7 +9407,7 @@
       </c>
       <c r="B69" s="99" t="inlineStr">
         <is>
-          <t>I worked on enhancing the Expert Dashboard and API for improved message handling, including updating API endpoints, improving message normalization, and refactoring the ExpertDashboard component. I also added fields to message queries and implemented new state management for pending, approved, and rejected answers.</t>
+          <t>Improved message handling and conversation management in Expert Dashboard</t>
         </is>
       </c>
       <c r="C69" s="100" t="n">
@@ -9419,7 +9422,7 @@
       </c>
       <c r="B70" s="99" t="inlineStr">
         <is>
-          <t>I worked on adding public integration endpoints for FAQ categories, implementing Azure Blob Storage integration for Strapi, and enhancing AWS S3 configuration with dynamic bucket URL and CORS support. I also fixed several bugs, including updating API endpoint paths for Strapi v5 compatibility and refactoring StatsSectionStrapi to use normalized stats and improve data fetching logic.</t>
+          <t>Enhanced AWS S3 configuration and added Azure Blob Storage integration</t>
         </is>
       </c>
       <c r="C70" s="100" t="n">
@@ -9434,7 +9437,7 @@
       </c>
       <c r="B71" s="99" t="inlineStr">
         <is>
-          <t>I worked on refactoring the code structure for improved readability and maintainability, and implemented several features and bug fixes across yeheli-web-fe, yeheli-web-admin, and yeheli-web-strapi, including updates to the FAQ category schema and synchronization logic, and the addition of Sinhala and Tamil locales for the FAQ section.</t>
+          <t>Simplified Stats interface and updated FAQ category schema</t>
         </is>
       </c>
       <c r="C71" s="100" t="n">
@@ -9449,7 +9452,7 @@
       </c>
       <c r="B72" s="99" t="inlineStr">
         <is>
-          <t>I worked on implementing hash verification for the setup password flow and handled user activation status in yeheli-web-be and yeheli-web-admin, and also enhanced email templates with updated styles and structure. I added a verify setup hash endpoint and service method, and merged pull requests to integrate these changes.</t>
+          <t>Merged pull request from Inforwaves/bugFixes</t>
         </is>
       </c>
       <c r="C72" s="100" t="n">
@@ -9464,7 +9467,7 @@
       </c>
       <c r="B73" s="99" t="inlineStr">
         <is>
-          <t>I worked on the viral-networks-fe project, focusing on correcting the minSdkVersion assignment in build.gradle and updating kotlin daemon options in gradle.properties, as well as updating dependencies and configurations for improved performance and compatibility.</t>
+          <t>Updated dependencies and configurations for improved performance and compatibility</t>
         </is>
       </c>
       <c r="C73" s="100" t="n">
@@ -9505,21 +9508,23 @@
     <row r="77">
       <c r="A77" s="99" t="inlineStr">
         <is>
-          <t>The existing message handling logic did not support filtering of expert threads based on query parameters, and the conversation history display was not optimized for performance.
-One key technical challenge was ensuring compatibility with Strapi v5 and implementing secure and efficient storage solutions using AWS S3 and Azure Blob Storage.
-One key technical challenge was simplifying the Stats interface by removing optional parameters and updating the blog and stats section data structure for consistency.
-One key technical challenge was implementing the hash verification for the setup password flow to ensure secure user activation.
-Inconsistent minSdkVersion assignment and outdated dependencies</t>
+          <t>Poor message handling and conversation management in Expert Dashboard
+Lack of public integration endpoint for FAQ categories
+Outdated AWS S3 configuration and lack of Azure Blob Storage integration
+Debugging information in Admin and Login pages
+Inconsistent data structure in blog and stats section
+Complex Stats interface and outdated FAQ category schema</t>
         </is>
       </c>
       <c r="B77" s="90" t="n"/>
       <c r="C77" s="99" t="inlineStr">
         <is>
-          <t>I utilized memoization for performance optimization, introduced helper functions for question previews and message type handling, and updated the Message type to include an `isBotGenerated` property for better message categorization.
-I used a combination of Strapi's built-in features, such as environment variables and plugin settings, along with custom scripts and configurations to implement the required functionality and ensure compatibility.
-I used code refactoring and feature implementation to address the technical challenges, including removing debugging information from the authentication flow and updating the content type schemas to enhance attributes and remove duplicates.
-I used a verify setup hash endpoint and service method to handle the hash verification and user activation status.
-Updated build.gradle and gradle.properties files to correct minSdkVersion assignment and updated dependencies for improved performance and compatibility</t>
+          <t>Improved message handling and conversation management in Expert Dashboard
+Added public integration endpoint for FAQ categories
+Enhanced AWS S3 configuration and added Azure Blob Storage integration
+Removed debugging information for improved security
+Updated data structure for improved consistency
+Simplified Stats interface and updated FAQ category schema</t>
         </is>
       </c>
     </row>
@@ -9678,7 +9683,7 @@
       </c>
       <c r="B3" s="99" t="inlineStr">
         <is>
-          <t>I worked on the viral-networks-fe project, focusing on updating dependencies, Gradle configurations, and fixing issues with GitHub Actions and NDK version consistency. I also updated the version and downgraded the flutter_uxcam dependency for improved compatibility.</t>
+          <t>Updated dependencies and Gradle configurations for improved compatibility</t>
         </is>
       </c>
       <c r="C3" s="100" t="n">
@@ -9702,7 +9707,7 @@
       </c>
       <c r="B5" s="99" t="inlineStr">
         <is>
-          <t>I worked on the xamit-app-frontend, focusing on refactoring and improving the code quality, including updates to the GetStartedPage, YoutubePlayerController, and API calls, as well as enhancing the UI layout and implementing Markdown rendering in various components.</t>
+          <t>Fixed Utag issues and updated app version</t>
         </is>
       </c>
       <c r="C5" s="100" t="n">
@@ -9717,7 +9722,7 @@
       </c>
       <c r="B6" s="99" t="inlineStr">
         <is>
-          <t>I worked on updating dependencies, refactoring code for improved readability, and bumping SDK versions in the xamit-app-frontend and execution-excellence-frontend projects. I also updated Android Gradle settings, Flutter SDK, and Dart SDK versions.</t>
+          <t>Updated dependencies and SDK versions</t>
         </is>
       </c>
       <c r="C6" s="100" t="n">
@@ -9732,7 +9737,7 @@
       </c>
       <c r="B7" s="99" t="inlineStr">
         <is>
-          <t>I implemented a SplashScreen with redirect to HomePage and updated main.dart to use SplashScreen in the xamit-app-frontend project, enhancing the user experience with a seamless transition to the main application page.</t>
+          <t>Implemented SplashScreen with redirect to HomePage and updated main.dart</t>
         </is>
       </c>
       <c r="C7" s="100" t="n">
@@ -9772,22 +9777,8 @@
     </row>
     <row r="11">
       <c r="A11" s="41" t="n"/>
-      <c r="B11" s="102" t="inlineStr">
-        <is>
-          <t>Inconsistent NDK version and outdated dependencies
-One key technical challenge was ensuring null safety and state management in the YoutubePlayerController handling.
-Outdated dependencies and SDK versions, and code readability issues
-The application lacked a splash screen, resulting in an abrupt transition to the home page.</t>
-        </is>
-      </c>
-      <c r="C11" s="99" t="inlineStr">
-        <is>
-          <t>Updated artifact list format in GitHub Actions, set explicit NDK version, and downgraded flutter_uxcam dependency
-I refactored the YoutubePlayerController handling to improve null safety and state management, streamlining the code for better readability and consistency.
-Updated dependencies, refactored code, and bumped SDK versions to ensure consistency and improve maintainability
-I designed and implemented a SplashScreen that redirects to the HomePage, providing a more engaging and polished user experience.</t>
-        </is>
-      </c>
+      <c r="B11" s="90" t="n"/>
+      <c r="C11" s="41" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="91" t="n"/>
@@ -10059,7 +10050,7 @@
       </c>
       <c r="B50" s="99" t="inlineStr">
         <is>
-          <t>I worked on the dialog-ai-api and dialog-ai-portal, focusing on refactoring unnecessary debug and error logging, updating SSL configuration, and enhancing authentication handling in chat and marketplace components.</t>
+          <t>Updated SSL configuration and authentication handling</t>
         </is>
       </c>
       <c r="C50" s="100" t="n">
@@ -10074,7 +10065,7 @@
       </c>
       <c r="B51" s="99" t="inlineStr">
         <is>
-          <t>I worked on the viral-networks-fe project, focusing on integrating the IdeaMart API for non-Mobitel operator subscriptions, refactoring API response handling, and updating models for IdeaMart OTP verification. I also performed various bug fixes, including cleaning up unused imports and debug print statements, and updated dependencies for improved performance.</t>
+          <t>Updated dependencies and configurations for improved performance</t>
         </is>
       </c>
       <c r="C51" s="100" t="n">
@@ -10115,15 +10106,15 @@
     <row r="55">
       <c r="A55" s="99" t="inlineStr">
         <is>
-          <t>Unauthorized rejection in database and API services due to outdated SSL configuration
-The key technical challenge was to refactor the existing code to accommodate the IdeaMart API for non-Mobitel operator subscriptions, which required significant changes to the API response handling and error handling mechanisms.</t>
+          <t>Removed unnecessary debug and error logging
+Cleaned up unused imports and debug print statements</t>
         </is>
       </c>
       <c r="B55" s="90" t="n"/>
       <c r="C55" s="99" t="inlineStr">
         <is>
-          <t>Updated SSL configuration to disable unauthorized rejection
-I refactored the API response handling and updated models for IdeaMart OTP verification, added new endpoints for IdeaMart API, and enhanced error handling to provide more detailed feedback based on API responses.</t>
+          <t>Updated SSL configuration, removed unnecessary logging, and updated authentication handling
+Updated dependencies, cleaned up unused imports, and refactored API response handling</t>
         </is>
       </c>
     </row>
@@ -10221,7 +10212,7 @@
       </c>
       <c r="B70" s="99" t="inlineStr">
         <is>
-          <t>I worked on refactoring code structure, adding new endpoints, and enhancing user experience for xamit-app-frontend, viral-networks-be, and xamit_rest_api. I also implemented scripts to fix and update orderKey for grades and modules.</t>
+          <t>Refactored code structure and implemented subscription status endpoint</t>
         </is>
       </c>
       <c r="C70" s="100" t="n">
@@ -10236,7 +10227,7 @@
       </c>
       <c r="B71" s="99" t="inlineStr">
         <is>
-          <t>I worked on the articom-docs project, where I updated the theme, added a logo SVG file, and revamped the documentation for the Articom platform. I also created a fresh mint project.</t>
+          <t>Created fresh mint project</t>
         </is>
       </c>
       <c r="C71" s="100" t="n">
@@ -10251,7 +10242,7 @@
       </c>
       <c r="B72" s="99" t="inlineStr">
         <is>
-          <t>I worked on the xamit-app-frontend, viral-networks-fe, and articom-docs projects, focusing on updates, bug fixes, and refactoring to improve code quality and user experience. I also performed various tasks such as updating dependencies, improving error handling, and enhancing UI components.</t>
+          <t>Updated dialog messages and base URL in Base class</t>
         </is>
       </c>
       <c r="C72" s="100" t="n">
@@ -10266,7 +10257,7 @@
       </c>
       <c r="B73" s="99" t="inlineStr">
         <is>
-          <t>I worked on implementing mock OTP functionality, normalizing phone number handling, and performing various bug fixes and improvements on the viral-networks-fe and viral-networks-be projects.</t>
+          <t>Merged pull request #86 from Inforwaves/ideamart</t>
         </is>
       </c>
       <c r="C73" s="100" t="n">
@@ -10307,19 +10298,61 @@
     <row r="77">
       <c r="A77" s="99" t="inlineStr">
         <is>
-          <t>The code structure was not readable and maintainable, and there was a need to improve the search functionality and user experience.
-The documentation required a theme update from maple to almond and needed a revamped version for the Articom platform.
-One key technical challenge was ensuring proper state management in async operations and improving error handling in various views.
-One key technical challenge was ensuring proper JSON handling and API response types, which required updates to the data mapping and API services.</t>
+          <t>Improved readability and maintainability
+Outdated theme
+Missing logo
+Outdated documentation
+Non-existent project
+Unmerged pull request
+Outdated dependencies
+Inefficient user messaging
+Specific Flutter version
+Outdated Flutter version
+Unmerged pull request
+Complex widget structure
+Misaligned constructor parameters
+Inconsistent layout
+Inconsistent styling
+Complex widget organization
+Inefficient API header management
+Inconsistent dialog messages
+Inconsistent OTP handling
+Outdated version
+Complex method signatures
+Rigid API response types
+Inefficient data mapping
+Outdated dependency
+Unmerged pull request</t>
         </is>
       </c>
       <c r="B77" s="90" t="n"/>
       <c r="C77" s="99" t="inlineStr">
         <is>
-          <t>I refactored the code, added new endpoints, and implemented scripts to fix and update orderKey for grades and modules, which improved the overall readability, maintainability, and user experience.
-I updated the theme configuration, added the required logo, and redesigned the documentation to meet the platform's requirements.
-I refactored API header management, updated padding and layout structures, and enhanced subtitle sections with consistent styling and layout to address these challenges.
-The solution involved updating the API response types to use dynamic for flexibility and streamlining method signatures in API services for improved readability.</t>
+          <t>Refactored code structure, added subscription status endpoint, and enhanced unsubscribe response
+Theme update
+Logo addition
+Documentation update
+Project creation
+Merged pull request
+Dependency update
+Improved user messaging
+Stable channel
+Flutter version update
+Merged pull request
+Simplified widget structure
+Aligned constructor parameters
+Improved layout
+Improved styling
+Simplified widget organization
+Improved API header management
+Improved dialog messages
+Mock OTP implementation
+Version update
+Simplified method signatures
+Dynamic API response types
+Improved data mapping
+Dependency downgrade
+Merged pull request</t>
         </is>
       </c>
     </row>
@@ -10408,7 +10441,7 @@
       </c>
       <c r="B91" s="99" t="inlineStr">
         <is>
-          <t>I worked on the xamit-app-frontend, enhancing error handling in the payment process, improving user feedback, and refactoring code for better readability and maintainability. I also fixed null safety issues and updated the version to 1.2.7+34.</t>
+          <t>Enhanced error handling in payment process with improved user feedback.</t>
         </is>
       </c>
       <c r="C91" s="100" t="n">
@@ -10423,7 +10456,7 @@
       </c>
       <c r="B92" s="99" t="inlineStr">
         <is>
-          <t>I worked on the articom-saas-v2 project, focusing on refactoring and feature additions, including the integration of ReCAPTCHA, updates to the UI, and improvements to the AI chat popup. I also made changes to the global font, layout, and added animations to the BuildWithAIPopup container.</t>
+          <t>Improved AI chat popup UI with animations and suggested prompts.</t>
         </is>
       </c>
       <c r="C92" s="100" t="n">
@@ -10491,15 +10524,15 @@
     <row r="99">
       <c r="A99" s="99" t="inlineStr">
         <is>
-          <t>Null safety issues in login.dart
-One key technical challenge was handling token expiration for opaque tokens and integrating ReCAPTCHA for AI chat requests.</t>
+          <t>Poor error handling in payment process
+Poor AI chat popup UI</t>
         </is>
       </c>
       <c r="B99" s="90" t="n"/>
       <c r="C99" s="99" t="inlineStr">
         <is>
-          <t>Fixed null safety issues in login.dart and bumped version to 1.2.7+34
-I used a combination of refactoring, feature additions, and updates to the UI to address these challenges, including the implementation of a new AI chat service and the integration of ReCAPTCHA.</t>
+          <t>Enhanced error handling in payment process with improved user feedback.
+Improved AI chat popup UI with animations and suggested prompts.</t>
         </is>
       </c>
     </row>
@@ -10703,7 +10736,7 @@
       </c>
       <c r="B8" s="99" t="inlineStr">
         <is>
-          <t>I worked on the xamit-app-frontend, implementing platform-specific display for the Credits page, screenshot prevention, and bumping the app version, as well as initializing the Android platform and making various UI adjustments.</t>
+          <t>Implemented platform-specific display for Credits page and screenshot prevention.</t>
         </is>
       </c>
       <c r="C8" s="100" t="n">
@@ -10736,12 +10769,12 @@
       <c r="A11" s="41" t="n"/>
       <c r="B11" s="102" t="inlineStr">
         <is>
-          <t>One key technical challenge was conditionally rendering UI elements for Android while preventing duplication of paper models and ensuring proper payment error handling.</t>
+          <t>Platform-specific display issues</t>
         </is>
       </c>
       <c r="C11" s="99" t="inlineStr">
         <is>
-          <t>I used a combination of platform-specific coding and conditional rendering to address these challenges, ensuring a seamless user experience across different platforms.</t>
+          <t>Implemented platform-specific display for Credits page and screenshot prevention.</t>
         </is>
       </c>
     </row>
@@ -10830,7 +10863,7 @@
       </c>
       <c r="B25" s="99" t="inlineStr">
         <is>
-          <t>I worked on the xamit-app-frontend, implementing features to display purchase points and a loading indicator on all platforms, as well as integrating RevenueCat for Android credit purchases and refactoring the payment flow to use RevenueCat for Android and Stripe for other platforms.</t>
+          <t>Integrated RevenueCat for Android credit purchases and refactored payment flow.</t>
         </is>
       </c>
       <c r="C25" s="100" t="n">
@@ -10845,7 +10878,7 @@
       </c>
       <c r="B26" s="99" t="inlineStr">
         <is>
-          <t>I worked on unifying Stripe payment processing, adding multi-gateway payment selection, and implementing dynamic payment configurations for the xamit-app-frontend and xamit_rest_api, which involved significant code changes and feature additions. I also integrated the PaymentModule into various core application modules and added a payment system configuration module with database migration.</t>
+          <t>Unified Stripe payment processing and added multi-gateway payment selection.</t>
         </is>
       </c>
       <c r="C26" s="100" t="n">
@@ -10869,7 +10902,7 @@
       </c>
       <c r="B28" s="99" t="inlineStr">
         <is>
-          <t>I worked on the xamit-app-frontend and xamit_rest_api, updating the Kotlin Android plugin, externalizing base URL configuration, and enhancing payment flow, as well as refining package selection logic and metadata on the backend. I also updated various files, including settings.gradle, base.dart, credits.dart, and main.dart, and bumped the app version to 1.2.11+38.</t>
+          <t>Updated Kotlin Android plugin and payment flow with environment variables.</t>
         </is>
       </c>
       <c r="C28" s="100" t="n">
@@ -10917,21 +10950,9 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="99" t="inlineStr">
-        <is>
-          <t>Integrating different payment systems for various platforms posed a technical challenge, requiring a seamless payment flow across Android and other platforms.
-One key technical challenge was ensuring robust point extraction in transaction processing across different payment gateways and packages.
-One key technical challenge was preventing data loss during payment system config migration.</t>
-        </is>
-      </c>
+      <c r="A33" s="41" t="n"/>
       <c r="B33" s="90" t="n"/>
-      <c r="C33" s="99" t="inlineStr">
-        <is>
-          <t>I used RevenueCat for Android credit purchases and Stripe for other platforms, refactoring the payment flow to accommodate these integrations.
-I implemented payment gateway and package seeding, updated the payment gateway column to VARCHAR, and added a payment config debug endpoint to improve point extraction robustness.
-I used conditional alteration of the payment_system_configs.gateway column and improved error handling to prevent data loss.</t>
-        </is>
-      </c>
+      <c r="C33" s="41" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="91" t="n"/>
@@ -11018,7 +11039,7 @@
       </c>
       <c r="B47" s="99" t="inlineStr">
         <is>
-          <t>I worked on the xamit_rest_api by merging the paymetGatewayLogic branch, integrating payment gateway logic into the existing codebase. This involved resolving potential conflicts and ensuring a seamless merge.</t>
+          <t>Merged payment gateway logic branch</t>
         </is>
       </c>
       <c r="C47" s="100" t="n">
@@ -11033,7 +11054,7 @@
       </c>
       <c r="B48" s="99" t="inlineStr">
         <is>
-          <t>I updated the gitignore file to exclude macOS metadata files in the employee-tracking-app-mobile project, ensuring a cleaner and more organized repository. This change will prevent unnecessary files from being committed to the repository.</t>
+          <t>Updated gitignore to exclude macOS metadata files</t>
         </is>
       </c>
       <c r="C48" s="100" t="n">
@@ -11057,7 +11078,7 @@
       </c>
       <c r="B50" s="99" t="inlineStr">
         <is>
-          <t>I worked on migrating the employee-tracking-app-mobile from CocoaPods to Swift Package Manager, which included removing CocoaPods dependency management, integrating Swift Package Manager, and configuring the build scheme. I also made changes to the Android build scripts and updated dependencies.</t>
+          <t>Migrated iOS project to Swift Package Manager</t>
         </is>
       </c>
       <c r="C50" s="100" t="n">
@@ -11072,7 +11093,7 @@
       </c>
       <c r="B51" s="99" t="inlineStr">
         <is>
-          <t>I worked on the employee-tracking-app-mobile and xamit-app-frontend, initializing iOS dependency management and adding Android billing permission with RevenueCat login implementation.</t>
+          <t>Set up Firebase dependency management and billing permission.</t>
         </is>
       </c>
       <c r="C51" s="100" t="n">
@@ -11113,19 +11134,17 @@
     <row r="55">
       <c r="A55" s="99" t="inlineStr">
         <is>
-          <t>One key technical challenge was ensuring that the payment gateway logic was properly integrated without introducing any bugs or conflicts with the existing code.
-The presence of macOS metadata files in the repository could potentially cause issues with the project's build and deployment processes.
-The key technical challenge was the migration from CocoaPods to Swift Package Manager, which required updates to the project configuration and build scripts.
-Managing dependencies and implementing billing permissions across different mobile platforms can be challenging.</t>
+          <t>payment gateway logic
+macOS metadata files
+CocoaPods dependency management</t>
         </is>
       </c>
       <c r="B55" s="90" t="n"/>
       <c r="C55" s="99" t="inlineStr">
         <is>
-          <t>I used a thorough review and testing process to ensure that the merge was successful and that the payment gateway logic functioned as expected.
-Updating the gitignore file to exclude these files
-The solution used was to follow the Flutter SPM documentation and update the project configuration, build scripts, and dependencies to use Swift Package Manager for iOS dependencies.
-I used CocoaPods and Swift Package Manager for iOS dependency management, and implemented RevenueCat login with user ID for Android billing permission.</t>
+          <t>branch merge
+gitignore update
+SPM integration for iOS plugin dependencies</t>
         </is>
       </c>
     </row>
@@ -11214,7 +11233,7 @@
       </c>
       <c r="B69" s="99" t="inlineStr">
         <is>
-          <t>I worked on the articom-base-mobile project, focusing on professionalizing documentation, extracting UI components, and refactoring code to improve the overall quality and structure of the application. This involved creating a new package for UI components, updating documentation, and removing unused code.</t>
+          <t>Refactored code and extracted UI components into separate package.</t>
         </is>
       </c>
       <c r="C69" s="100" t="n">
@@ -11229,7 +11248,7 @@
       </c>
       <c r="B70" s="99" t="inlineStr">
         <is>
-          <t>I worked on introducing new features to the articom-base-mobile project, including adding an `onPressed` event for the `VoiceAssistantButton` and an `expandOnImageTap` feature for the `MiniCard`, while also updating the package version and removing unused dependencies. I successfully implemented these changes and updated the project accordingly.</t>
+          <t>Implemented button and card UI improvements, updated package version.</t>
         </is>
       </c>
       <c r="C70" s="100" t="n">
@@ -11295,19 +11314,9 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="99" t="inlineStr">
-        <is>
-          <t>The codebase had unused widgets and lacked a structured approach to UI components, which could lead to maintenance issues and inconsistencies in the application's user interface.
-One key technical challenge was ensuring the new features were properly integrated without introducing any compatibility issues or breaking existing functionality.</t>
-        </is>
-      </c>
+      <c r="A77" s="41" t="n"/>
       <c r="B77" s="90" t="n"/>
-      <c r="C77" s="99" t="inlineStr">
-        <is>
-          <t>I extracted common UI components into a separate package, removed unused code, and improved documentation to make the codebase more maintainable and efficient.
-I carefully reviewed the code, updated the necessary components, and removed unused dependencies to ensure a smooth integration of the new features.</t>
-        </is>
-      </c>
+      <c r="C77" s="41" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="91" t="n"/>
